--- a/DataWebPremierLeague.xlsx
+++ b/DataWebPremierLeague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -496,10 +494,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -527,10 +523,8 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -558,10 +552,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -589,10 +581,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -620,10 +610,8 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -651,30 +639,28 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Matheus Cunha</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15 (0)</t>
+          <t>16 (2)</t>
         </is>
       </c>
     </row>
@@ -682,26 +668,28 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Matheus Cunha</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15 (4)</t>
+          <t>15 (0)</t>
         </is>
       </c>
     </row>
@@ -709,10 +697,12 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -723,12 +713,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15 (2)</t>
+          <t>15 (4)</t>
         </is>
       </c>
     </row>
@@ -736,10 +726,8 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -767,10 +755,8 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
+      <c r="B12" t="n">
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -798,10 +784,8 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -829,7 +813,9 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Luis Díaz</t>
@@ -856,7 +842,9 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Justin Kluivert</t>
@@ -883,30 +871,28 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>15.</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11 (0)</t>
+          <t>11 (3)</t>
         </is>
       </c>
     </row>
@@ -914,30 +900,28 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>16.</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10 (1)</t>
+          <t>11 (0)</t>
         </is>
       </c>
     </row>
@@ -945,26 +929,28 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Evanilson</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10 (0)</t>
+          <t>11 (0)</t>
         </is>
       </c>
     </row>
@@ -972,26 +958,28 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10 (0)</t>
+          <t>10 (1)</t>
         </is>
       </c>
     </row>
@@ -999,26 +987,28 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Evanilson</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10 (3)</t>
+          <t>10 (0)</t>
         </is>
       </c>
     </row>
@@ -1026,26 +1016,28 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10 (5)</t>
+          <t>10 (0)</t>
         </is>
       </c>
     </row>
@@ -1053,26 +1045,28 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10 (0)</t>
+          <t>10 (5)</t>
         </is>
       </c>
     </row>
@@ -1080,14 +1074,12 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>22.</t>
-        </is>
+      <c r="B23" t="n">
+        <v>22</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1098,12 +1090,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9 (0)</t>
+          <t>10 (1)</t>
         </is>
       </c>
     </row>
@@ -1111,21 +1103,23 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1138,21 +1132,23 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kai Havertz</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1165,21 +1161,23 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Kai Havertz</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1192,21 +1190,23 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1219,21 +1219,23 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kaoru Mitoma</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1246,21 +1248,23 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Kaoru Mitoma</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1273,21 +1277,23 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1300,14 +1306,12 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>30.</t>
-        </is>
+      <c r="B31" t="n">
+        <v>30</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bruno Fernandes</t>
+          <t>Beto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1318,12 +1322,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8 (3)</t>
+          <t>8 (0)</t>
         </is>
       </c>
     </row>
@@ -1331,26 +1335,28 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Bruno Fernandes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8 (0)</t>
+          <t>8 (3)</t>
         </is>
       </c>
     </row>
@@ -1358,21 +1364,23 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1385,21 +1393,23 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Morgan Rogers</t>
+          <t>Rodrigo Muniz</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1412,10 +1422,12 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dominic Solanke</t>
+          <t>Morgan Rogers</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1426,7 +1438,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1439,21 +1451,23 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Dominic Solanke</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1466,21 +1480,23 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Leandro Trossard</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1493,26 +1509,28 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jamie Vardy</t>
+          <t>Leandro Trossard</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8 (1)</t>
+          <t>8 (0)</t>
         </is>
       </c>
     </row>
@@ -1520,30 +1538,28 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>38.</t>
-        </is>
+      <c r="B39" t="n">
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Beto</t>
+          <t>Jamie Vardy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>7 (0)</t>
+          <t>8 (1)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1567,9 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Amad Diallo</t>
@@ -1578,7 +1596,9 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Jhon Durán</t>
@@ -1605,7 +1625,9 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Phil Foden</t>
@@ -1632,7 +1654,9 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Gabriel Martinelli</t>
@@ -1659,7 +1683,9 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Dejan Kulusevski</t>
@@ -1686,7 +1712,9 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Noni Madueke</t>
@@ -1713,7 +1741,9 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>Iliman Ndiaye</t>
@@ -1740,7 +1770,9 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>Dango Ouattara</t>
@@ -1767,7 +1799,9 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>Ismaïla Sarr</t>
@@ -1794,7 +1828,9 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>Heung-min Son</t>
@@ -1821,10 +1857,8 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>49.</t>
-        </is>
+      <c r="B50" t="n">
+        <v>49</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1852,7 +1886,9 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>Anthony Elanga</t>
@@ -1879,7 +1915,9 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>Enzo Fernández</t>
@@ -1906,7 +1944,9 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>Alejandro Garnacho</t>
@@ -1933,7 +1973,9 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>Anthony Gordon</t>
@@ -1960,7 +2002,9 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>Mateo Kovačić</t>
@@ -1987,7 +2031,9 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>Omar Marmoush</t>
@@ -2014,7 +2060,9 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>Mikel Merino</t>
@@ -2041,7 +2089,9 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>Yankuba Minteh</t>
@@ -2068,7 +2118,9 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>Marcus Rashford</t>
@@ -2082,8 +2134,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Aston Villa 
-Manchester United</t>
+          <t>Aston Villa / Manchester United</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2096,7 +2147,9 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>Bukayo Saka</t>
@@ -2123,7 +2176,9 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>Emile Smith Rowe</t>
@@ -2150,10 +2205,8 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>61.</t>
-        </is>
+      <c r="B62" t="n">
+        <v>61</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2168,8 +2221,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Crystal Palace 
-Leicester City</t>
+          <t>Crystal Palace / Leicester City</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2182,7 +2234,9 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>Eberechi Eze</t>
@@ -2209,7 +2263,9 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>Morgan Gibbs-White</t>
@@ -2236,7 +2292,9 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>Joško Gvardiol</t>
@@ -2263,7 +2321,9 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>Callum Hudson-Odoi</t>
@@ -2290,7 +2350,9 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>Alexis Mac Allister</t>
@@ -2317,7 +2379,9 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>Christian Nørgaard</t>
@@ -2344,7 +2408,9 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Darwin Núñez</t>
@@ -2371,7 +2437,9 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>Georginio Rutter</t>
@@ -2398,7 +2466,9 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>Dominik Szoboszlai</t>
@@ -2425,7 +2495,9 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>Harry Wilson</t>
@@ -2452,10 +2524,8 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>72.</t>
-        </is>
+      <c r="B73" t="n">
+        <v>72</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2483,7 +2553,9 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>Bruno Guimarães</t>
@@ -2510,7 +2582,9 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Facundo Buonanotte</t>
@@ -2537,7 +2611,9 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>Cucurella</t>
@@ -2564,7 +2640,9 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>Kevin De Bruyne</t>
@@ -2591,7 +2669,9 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>Rasmus Højlund</t>
@@ -2618,7 +2698,9 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>Joelinton</t>
@@ -2645,7 +2727,9 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>Mohammed Kudus</t>
@@ -2672,7 +2756,9 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>Lucas Paquetá</t>
@@ -2699,7 +2785,9 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>Stephy Mavididi</t>
@@ -2726,7 +2814,9 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>Dwight McNeil</t>
@@ -2753,7 +2843,9 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>Nikola Milenković</t>
@@ -2780,7 +2872,9 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>Daniel Muñoz</t>
@@ -2807,7 +2901,9 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>Ethan Nwaneri</t>
@@ -2834,7 +2930,9 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>Paul Onuachu</t>
@@ -2861,7 +2959,9 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Thomas Partey</t>
@@ -2888,7 +2988,9 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>Pedro Neto</t>
@@ -2915,7 +3017,9 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>Richarlison</t>
@@ -2942,7 +3046,9 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>Fabian Schär</t>
@@ -2969,7 +3075,9 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>Ryan Sessegnon</t>
@@ -2996,7 +3104,9 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>Sammie Szmodics</t>
@@ -3023,10 +3133,8 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>93.</t>
-        </is>
+      <c r="B94" t="n">
+        <v>93</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3054,7 +3162,9 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>Joe Aribo</t>
@@ -3081,7 +3191,9 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>Carlos Baleba</t>
@@ -3108,7 +3220,9 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>Ross Barkley</t>
@@ -3135,7 +3249,9 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>Bernardo Silva</t>
@@ -3162,7 +3278,9 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>Dominic Calvert-Lewin</t>
@@ -3189,7 +3307,9 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>Trevoh Chalobah</t>
@@ -3203,8 +3323,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chelsea FC 
-Crystal Palace</t>
+          <t>Chelsea FC / Crystal Palace</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3217,7 +3336,9 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>Jérémy Doku</t>
@@ -3244,7 +3365,9 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Abdoulaye Doucouré</t>
@@ -3271,7 +3394,9 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>Niclas Füllkrug</t>
@@ -3298,7 +3423,9 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>Gabriel Jesus</t>
@@ -3325,7 +3452,9 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>Gabriel Magalhães</t>
@@ -3352,7 +3481,9 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>Marc Guéhi</t>
@@ -3379,7 +3510,9 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>George Hirst</t>
@@ -3406,7 +3539,9 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>Dean Huijsen</t>
@@ -3433,7 +3568,9 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>Omari Hutchinson</t>
@@ -3460,7 +3597,9 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>João Gomes</t>
@@ -3487,7 +3626,9 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Curtis Jones</t>
@@ -3514,7 +3655,9 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>Jota Silva</t>
@@ -3541,21 +3684,23 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Donyell Malen</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -3568,16 +3713,18 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Marco Asensio</t>
+          <t>Donyell Malen</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3595,21 +3742,23 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>James McAtee</t>
+          <t>Marco Asensio</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -3622,21 +3771,23 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Christopher Nkunku</t>
+          <t>James McAtee</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -3649,21 +3800,23 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Amadou Onana</t>
+          <t>Christopher Nkunku</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -3676,21 +3829,23 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pablo Sarabia</t>
+          <t>Amadou Onana</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -3703,21 +3858,23 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Pablo Sarabia</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -3730,10 +3887,12 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Jadon Sancho</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -3744,7 +3903,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -3757,21 +3916,23 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pape Sarr</t>
+          <t>Jadon Sancho</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -3784,21 +3945,23 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Pape Sarr</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -3811,21 +3974,23 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Youri Tielemans</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -3838,21 +4003,23 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sandro Tonali</t>
+          <t>Youri Tielemans</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -3865,21 +4032,23 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Sandro Tonali</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -3892,10 +4061,12 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Joshua Zirkzee</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -3906,7 +4077,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -3919,30 +4090,28 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>126.</t>
-        </is>
+      <c r="B127" t="n">
+        <v>126</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Joshua Zirkzee</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>3 (0)</t>
         </is>
       </c>
     </row>
@@ -3950,21 +4119,23 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Simon Adingra</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -3977,21 +4148,23 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ola Aina</t>
+          <t>Simon Adingra</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4004,16 +4177,18 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Elliot Anderson</t>
+          <t>Ola Aina</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4031,21 +4206,23 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Andreas Pereira</t>
+          <t>Elliot Anderson</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4058,21 +4235,23 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cameron Archer</t>
+          <t>Andreas Pereira</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4085,10 +4264,12 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Adam Armstrong</t>
+          <t>Cameron Archer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4112,16 +4293,18 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Jan Bednarek</t>
+          <t>Adam Armstrong</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4139,21 +4322,23 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Jean Bellegarde</t>
+          <t>Jan Bednarek</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4166,21 +4351,23 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Jean Bellegarde</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4193,16 +4380,18 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Yves Bissouma</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4220,21 +4409,23 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>David Brooks</t>
+          <t>Yves Bissouma</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4247,21 +4438,23 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Riccardo Calafiori</t>
+          <t>David Brooks</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -4274,21 +4467,23 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Riccardo Calafiori</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -4301,21 +4496,23 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nathan Collins</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -4328,16 +4525,18 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mikkel Damsgaard</t>
+          <t>Nathan Collins</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4355,21 +4554,23 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Matthijs de Ligt</t>
+          <t>Mikkel Damsgaard</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -4382,21 +4583,23 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tyler Dibling</t>
+          <t>Matthijs de Ligt</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -4409,21 +4612,23 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Tyler Dibling</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -4436,21 +4641,23 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Bilal El Khannouss</t>
+          <t>Matt Doherty</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -4463,21 +4670,23 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Emerson</t>
+          <t>Bilal El Khannouss</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -4490,22 +4699,23 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Julio Enciso</t>
+          <t>Emerson</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion 
-Ipswich Town</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -4518,21 +4728,23 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr"/>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Fabio Carvalho</t>
+          <t>Julio Enciso</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Brighton &amp; Hove Albion / Ipswich Town</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -4545,10 +4757,12 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Gonçalo Guedes</t>
+          <t>Fabio Carvalho</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -4559,7 +4773,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -4572,21 +4786,23 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Jack Hinshelwood</t>
+          <t>Gonçalo Guedes</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -4599,21 +4815,23 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>151</v>
+      </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hee-chan Hwang</t>
+          <t>Jack Hinshelwood</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -4626,21 +4844,23 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>152</v>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>James Justin</t>
+          <t>Hee-chan Hwang</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -4653,10 +4873,12 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>153</v>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>James Justin</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -4667,7 +4889,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -4680,7 +4902,9 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>154</v>
+      </c>
       <c r="C155" t="inlineStr">
         <is>
           <t>Milos Kerkez</t>
@@ -4707,7 +4931,9 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>155</v>
+      </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>Tariq Lamptey</t>
@@ -4734,7 +4960,9 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr"/>
+      <c r="B157" t="n">
+        <v>156</v>
+      </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>Lisandro Martínez</t>
@@ -4761,7 +4989,9 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="n">
+        <v>157</v>
+      </c>
       <c r="C158" t="inlineStr">
         <is>
           <t>Mateus Fernandes</t>
@@ -4788,7 +5018,9 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" t="n">
+        <v>158</v>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>Murillo</t>
@@ -4815,7 +5047,9 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>159</v>
+      </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>Jake O'Brien</t>
@@ -4842,7 +5076,9 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="n">
+        <v>160</v>
+      </c>
       <c r="C161" t="inlineStr">
         <is>
           <t>Nico O'Reilly</t>
@@ -4869,7 +5105,9 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr"/>
+      <c r="B162" t="n">
+        <v>161</v>
+      </c>
       <c r="C162" t="inlineStr">
         <is>
           <t>Martin Ødegaard</t>
@@ -4896,7 +5134,9 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>162</v>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
           <t>Pedro Porro</t>
@@ -4923,7 +5163,9 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>163</v>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
           <t>Jaden Philogene</t>
@@ -4937,8 +5179,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Aston Villa 
-Ipswich Town</t>
+          <t>Aston Villa / Ipswich Town</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -4951,7 +5192,9 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>164</v>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
           <t>Ethan Pinnock</t>
@@ -4978,7 +5221,9 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="B166" t="n">
+        <v>165</v>
+      </c>
       <c r="C166" t="inlineStr">
         <is>
           <t>Rodrigo Gomes</t>
@@ -5005,7 +5250,9 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="B167" t="n">
+        <v>166</v>
+      </c>
       <c r="C167" t="inlineStr">
         <is>
           <t>William Saliba</t>
@@ -5032,7 +5279,9 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr"/>
+      <c r="B168" t="n">
+        <v>167</v>
+      </c>
       <c r="C168" t="inlineStr">
         <is>
           <t>John Stones</t>
@@ -5059,7 +5308,9 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr"/>
+      <c r="B169" t="n">
+        <v>168</v>
+      </c>
       <c r="C169" t="inlineStr">
         <is>
           <t>Mathys Tel</t>
@@ -5086,7 +5337,9 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr"/>
+      <c r="B170" t="n">
+        <v>169</v>
+      </c>
       <c r="C170" t="inlineStr">
         <is>
           <t>Enes Ünal</t>
@@ -5113,7 +5366,9 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr"/>
+      <c r="B171" t="n">
+        <v>170</v>
+      </c>
       <c r="C171" t="inlineStr">
         <is>
           <t>Aaron Wan-Bissaka</t>
@@ -5140,7 +5395,9 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr"/>
+      <c r="B172" t="n">
+        <v>171</v>
+      </c>
       <c r="C172" t="inlineStr">
         <is>
           <t>Ryan Yates</t>
@@ -5167,10 +5424,8 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>172.</t>
-        </is>
+      <c r="B173" t="n">
+        <v>172</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5198,7 +5453,9 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>173</v>
+      </c>
       <c r="C174" t="inlineStr">
         <is>
           <t>Carlos Alcaraz</t>
@@ -5212,8 +5469,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Everton FC 
-Southampton FC</t>
+          <t>Everton FC / Southampton FC</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -5226,7 +5482,9 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="n">
+        <v>174</v>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
           <t>Michail Antonio</t>
@@ -5253,7 +5511,9 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="n">
+        <v>175</v>
+      </c>
       <c r="C176" t="inlineStr">
         <is>
           <t>Taiwo Awoniyi</t>
@@ -5280,7 +5540,9 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="n">
+        <v>176</v>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
           <t>Yasin Ayari</t>
@@ -5307,7 +5569,9 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="B178" t="n">
+        <v>177</v>
+      </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>Leon Bailey</t>
@@ -5334,7 +5598,9 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>178</v>
+      </c>
       <c r="C179" t="inlineStr">
         <is>
           <t>Calvin Bassey</t>
@@ -5361,7 +5627,9 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>179</v>
+      </c>
       <c r="C180" t="inlineStr">
         <is>
           <t>Nathan Broadhead</t>
@@ -5388,7 +5656,9 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="inlineStr"/>
+      <c r="B181" t="n">
+        <v>180</v>
+      </c>
       <c r="C181" t="inlineStr">
         <is>
           <t>Dan Burn</t>
@@ -5415,7 +5685,9 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>181</v>
+      </c>
       <c r="C182" t="inlineStr">
         <is>
           <t>Moisés Caicedo</t>
@@ -5442,7 +5714,9 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>182</v>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
           <t>Tom Cairney</t>
@@ -5469,7 +5743,9 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>183</v>
+      </c>
       <c r="C184" t="inlineStr">
         <is>
           <t>Jens Cajuste</t>
@@ -5496,7 +5772,9 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>184</v>
+      </c>
       <c r="C185" t="inlineStr">
         <is>
           <t>Carlos Soler</t>
@@ -5523,7 +5801,9 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>185</v>
+      </c>
       <c r="C186" t="inlineStr">
         <is>
           <t>Casemiro</t>
@@ -5550,7 +5830,9 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>186</v>
+      </c>
       <c r="C187" t="inlineStr">
         <is>
           <t>Matty Cash</t>
@@ -5577,7 +5859,9 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>187</v>
+      </c>
       <c r="C188" t="inlineStr">
         <is>
           <t>Conor Chaplin</t>
@@ -5604,7 +5888,9 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>188</v>
+      </c>
       <c r="C189" t="inlineStr">
         <is>
           <t>Levi Colwill</t>
@@ -5631,7 +5917,9 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>189</v>
+      </c>
       <c r="C190" t="inlineStr">
         <is>
           <t>Lewis Cook</t>
@@ -5658,7 +5946,9 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>190</v>
+      </c>
       <c r="C191" t="inlineStr">
         <is>
           <t>Patson Daka</t>
@@ -5685,7 +5975,9 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>191</v>
+      </c>
       <c r="C192" t="inlineStr">
         <is>
           <t>Leif Davis</t>
@@ -5712,7 +6004,9 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>192</v>
+      </c>
       <c r="C193" t="inlineStr">
         <is>
           <t>Bobby De Cordova-Reid</t>
@@ -5739,7 +6033,9 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>193</v>
+      </c>
       <c r="C194" t="inlineStr">
         <is>
           <t>Justin Devenny</t>
@@ -5766,7 +6062,9 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>194</v>
+      </c>
       <c r="C195" t="inlineStr">
         <is>
           <t>Axel Disasi</t>
@@ -5780,8 +6078,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Aston Villa 
-Chelsea FC</t>
+          <t>Aston Villa / Chelsea FC</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -5794,7 +6091,9 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>195</v>
+      </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>Flynn Downes</t>
@@ -5821,7 +6120,9 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>196</v>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
           <t>Romain Esse</t>
@@ -5848,7 +6149,9 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>197</v>
+      </c>
       <c r="C198" t="inlineStr">
         <is>
           <t>Pervis Estupiñán</t>
@@ -5875,7 +6178,9 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>198</v>
+      </c>
       <c r="C199" t="inlineStr">
         <is>
           <t>Wout Faes</t>
@@ -5902,7 +6207,9 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>199</v>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
           <t>Evan Ferguson</t>
@@ -5916,8 +6223,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion 
-West Ham United</t>
+          <t>Brighton &amp; Hove Albion / West Ham United</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -5930,7 +6236,9 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>200</v>
+      </c>
       <c r="C201" t="inlineStr">
         <is>
           <t>Tyrique George</t>
@@ -5957,7 +6265,9 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>201</v>
+      </c>
       <c r="C202" t="inlineStr">
         <is>
           <t>Jack Grealish</t>
@@ -5984,7 +6294,9 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>202</v>
+      </c>
       <c r="C203" t="inlineStr">
         <is>
           <t>Jacob Greaves</t>
@@ -6011,21 +6323,23 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>203</v>
+      </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Jack Harrison</t>
+          <t>Brajan Gruda</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -6038,10 +6352,12 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>204</v>
+      </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Taylor Harwood-Bellis</t>
+          <t>Jack Harrison</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -6052,7 +6368,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -6065,10 +6381,12 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>205</v>
+      </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Danny Ings</t>
+          <t>Taylor Harwood-Bellis</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -6079,7 +6397,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -6092,10 +6410,12 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="inlineStr"/>
+      <c r="B207" t="n">
+        <v>206</v>
+      </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Reece James</t>
+          <t>Danny Ings</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -6106,7 +6426,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -6119,21 +6439,23 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>207</v>
+      </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Vitaly Janelt</t>
+          <t>Reece James</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -6146,21 +6468,23 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="n">
+        <v>208</v>
+      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>João Félix</t>
+          <t>Vitaly Janelt</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -6173,21 +6497,23 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr"/>
+      <c r="B210" t="n">
+        <v>209</v>
+      </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Ben Johnson</t>
+          <t>João Félix</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -6200,21 +6526,23 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr"/>
+      <c r="B211" t="n">
+        <v>210</v>
+      </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Ferdi Kadıoğlu</t>
+          <t>Ben Johnson</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -6227,21 +6555,23 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
+      <c r="B212" t="n">
+        <v>211</v>
+      </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Ferdi Kadıoğlu</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6254,21 +6584,23 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
+      <c r="B213" t="n">
+        <v>212</v>
+      </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -6281,21 +6613,23 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr"/>
+      <c r="B214" t="n">
+        <v>213</v>
+      </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Ezri Konsa</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -6308,21 +6642,23 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr"/>
+      <c r="B215" t="n">
+        <v>214</v>
+      </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Maxence Lacroix</t>
+          <t>Ezri Konsa</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -6335,21 +6671,23 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr"/>
+      <c r="B216" t="n">
+        <v>215</v>
+      </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>Maxence Lacroix</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -6362,21 +6700,23 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="n">
+        <v>216</v>
+      </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -6389,10 +6729,12 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr"/>
+      <c r="B218" t="n">
+        <v>217</v>
+      </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -6403,7 +6745,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -6416,10 +6758,12 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr"/>
+      <c r="B219" t="n">
+        <v>218</v>
+      </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Myles Lewis-Skelly</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -6430,7 +6774,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -6443,21 +6787,23 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="n">
+        <v>219</v>
+      </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Ian Maatsen</t>
+          <t>Myles Lewis-Skelly</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -6470,21 +6816,23 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B221" t="n">
+        <v>220</v>
+      </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Harry Maguire</t>
+          <t>Ian Maatsen</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -6497,21 +6845,23 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="n">
+        <v>221</v>
+      </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Orel Mangala</t>
+          <t>Harry Maguire</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -6524,21 +6874,23 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr"/>
+      <c r="B223" t="n">
+        <v>222</v>
+      </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Matheus França</t>
+          <t>Orel Mangala</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -6551,21 +6903,23 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="n">
+        <v>223</v>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Matheus Nunes</t>
+          <t>Matheus França</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -6578,21 +6932,23 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="n">
+        <v>224</v>
+      </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Matheus Nunes</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -6605,21 +6961,23 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" t="n">
+        <v>225</v>
+      </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Lewis Miley</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -6632,21 +6990,23 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr"/>
+      <c r="B227" t="n">
+        <v>226</v>
+      </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Sam Morsy</t>
+          <t>Lewis Miley</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -6659,21 +7019,23 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr"/>
+      <c r="B228" t="n">
+        <v>227</v>
+      </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Mason Mount</t>
+          <t>Sam Morsy</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -6686,21 +7048,23 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr"/>
+      <c r="B229" t="n">
+        <v>228</v>
+      </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Marshall Munetsi</t>
+          <t>Mason Mount</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -6713,22 +7077,23 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr"/>
+      <c r="B230" t="n">
+        <v>229</v>
+      </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Reiss Nelson</t>
+          <t>Marshall Munetsi</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Arsenal FC 
-Fulham FC</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -6741,22 +7106,23 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" t="n">
+        <v>230</v>
+      </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Eddie Nketiah</t>
+          <t>Vitaliy Mykolenko</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Arsenal FC 
-Crystal Palace</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -6769,21 +7135,23 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr"/>
+      <c r="B232" t="n">
+        <v>231</v>
+      </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Matt O'Riley</t>
+          <t>Reiss Nelson</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Arsenal FC / Fulham FC</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -6796,21 +7164,23 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="inlineStr"/>
+      <c r="B233" t="n">
+        <v>232</v>
+      </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Wilson Odobert</t>
+          <t>Eddie Nketiah</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Arsenal FC / Crystal Palace</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -6823,21 +7193,23 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr"/>
+      <c r="B234" t="n">
+        <v>233</v>
+      </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Caleb Okoli</t>
+          <t>Matt O'Riley</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -6850,21 +7222,23 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr"/>
+      <c r="B235" t="n">
+        <v>234</v>
+      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>William Osula</t>
+          <t>Wilson Odobert</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -6877,21 +7251,23 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="n">
+        <v>235</v>
+      </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Jacob Ramsey</t>
+          <t>Caleb Okoli</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -6904,21 +7280,23 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr"/>
+      <c r="B237" t="n">
+        <v>236</v>
+      </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>William Osula</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -6931,21 +7309,23 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr"/>
+      <c r="B238" t="n">
+        <v>237</v>
+      </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Jacob Ramsey</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -6958,21 +7338,23 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="n">
+        <v>238</v>
+      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Sávinho</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -6985,21 +7367,23 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="n">
+        <v>239</v>
+      </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Luis Sinisterra</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -7012,21 +7396,23 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr"/>
+      <c r="B241" t="n">
+        <v>240</v>
+      </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Will Smallbone</t>
+          <t>Sávinho</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -7039,21 +7425,23 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr"/>
+      <c r="B242" t="n">
+        <v>241</v>
+      </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Ramón Sosa</t>
+          <t>Luis Sinisterra</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -7066,21 +7454,23 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr"/>
+      <c r="B243" t="n">
+        <v>242</v>
+      </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Djed Spence</t>
+          <t>Will Smallbone</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -7093,21 +7483,23 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr"/>
+      <c r="B244" t="n">
+        <v>243</v>
+      </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Jack Stephens</t>
+          <t>Ramón Sosa</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -7120,21 +7512,23 @@
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr"/>
+      <c r="B245" t="n">
+        <v>244</v>
+      </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Yukinari Sugawara</t>
+          <t>Djed Spence</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -7147,16 +7541,18 @@
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="inlineStr"/>
+      <c r="B246" t="n">
+        <v>245</v>
+      </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Kamaldeen Sulemana</t>
+          <t>Jack Stephens</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -7174,21 +7570,23 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr"/>
+      <c r="B247" t="n">
+        <v>246</v>
+      </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Crysencio Summerville</t>
+          <t>Yukinari Sugawara</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -7201,21 +7599,23 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="inlineStr"/>
+      <c r="B248" t="n">
+        <v>247</v>
+      </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Kamaldeen Sulemana</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -7228,21 +7628,23 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr"/>
+      <c r="B249" t="n">
+        <v>248</v>
+      </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Jack Taylor</t>
+          <t>Crysencio Summerville</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -7255,21 +7657,23 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="n">
+        <v>249</v>
+      </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Jurriën Timber</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -7282,21 +7686,23 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr"/>
+      <c r="B251" t="n">
+        <v>250</v>
+      </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Manuel Ugarte</t>
+          <t>Jack Taylor</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -7309,21 +7715,23 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr"/>
+      <c r="B252" t="n">
+        <v>251</v>
+      </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Lesley Ugochukwu</t>
+          <t>Jurriën Timber</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -7336,21 +7744,23 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="inlineStr"/>
+      <c r="B253" t="n">
+        <v>252</v>
+      </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Jan Paul van Hecke</t>
+          <t>Manuel Ugarte</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -7363,21 +7773,23 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr"/>
+      <c r="B254" t="n">
+        <v>253</v>
+      </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Mats Wieffer</t>
+          <t>Lesley Ugochukwu</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -7390,21 +7802,23 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr"/>
+      <c r="B255" t="n">
+        <v>254</v>
+      </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Neco Williams</t>
+          <t>Jan Paul van Hecke</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -7417,24 +7831,84 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr"/>
+      <c r="B256" t="n">
+        <v>255</v>
+      </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>Mats Wieffer</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>256</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Neco Williams</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>257</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Ashley Young</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>Everton FC</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>1 (0)</t>
         </is>

--- a/DataWebPremierLeague.xlsx
+++ b/DataWebPremierLeague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19 (3)</t>
+          <t>20 (3)</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18 (5)</t>
+          <t>19 (5)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17 (0)</t>
+          <t>18 (0)</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13 (0)</t>
+          <t>14 (0)</t>
         </is>
       </c>
     </row>
@@ -789,23 +789,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Liam Delap</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12 (2)</t>
+          <t>13 (0)</t>
         </is>
       </c>
     </row>
@@ -818,23 +818,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12 (0)</t>
+          <t>12 (1)</t>
         </is>
       </c>
     </row>
@@ -847,23 +847,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Justin Kluivert</t>
+          <t>Liam Delap</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12 (6)</t>
+          <t>12 (2)</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11 (3)</t>
+          <t>12 (3)</t>
         </is>
       </c>
     </row>
@@ -905,23 +905,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brennan Johnson</t>
+          <t>Justin Kluivert</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11 (0)</t>
+          <t>12 (6)</t>
         </is>
       </c>
     </row>
@@ -934,18 +934,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kevin Schade</t>
+          <t>Brennan Johnson</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -963,23 +963,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin Schade</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10 (1)</t>
+          <t>11 (0)</t>
         </is>
       </c>
     </row>
@@ -1021,18 +1021,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1050,23 +1050,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10 (5)</t>
+          <t>10 (0)</t>
         </is>
       </c>
     </row>
@@ -1079,13 +1079,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10 (1)</t>
+          <t>10 (5)</t>
         </is>
       </c>
     </row>
@@ -1108,23 +1108,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Harvey Barnes</t>
+          <t>Kaoru Mitoma</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9 (0)</t>
+          <t>10 (0)</t>
         </is>
       </c>
     </row>
@@ -1137,23 +1137,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Danny Welbeck</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9 (0)</t>
+          <t>10 (1)</t>
         </is>
       </c>
     </row>
@@ -1166,18 +1166,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kai Havertz</t>
+          <t>Harvey Barnes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1195,18 +1195,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alex Iwobi</t>
+          <t>Kai Havertz</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1224,18 +1224,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Alex Iwobi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kaoru Mitoma</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1282,23 +1282,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Iliman Ndiaye</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9 (0)</t>
+          <t>9 (2)</t>
         </is>
       </c>
     </row>
@@ -1311,23 +1311,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Beto</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8 (0)</t>
+          <t>9 (0)</t>
         </is>
       </c>
     </row>
@@ -1340,23 +1340,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bruno Fernandes</t>
+          <t>Tomáš Souček</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8 (3)</t>
+          <t>9 (0)</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jacob Murphy</t>
+          <t>Jamie Vardy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1380,12 +1380,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>8 (0)</t>
+          <t>9 (1)</t>
         </is>
       </c>
     </row>
@@ -1398,18 +1398,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz</t>
+          <t>Beto</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1427,23 +1427,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Morgan Rogers</t>
+          <t>Bruno Fernandes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8 (0)</t>
+          <t>8 (3)</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dominic Solanke</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8 (0)</t>
+          <t>8 (1)</t>
         </is>
       </c>
     </row>
@@ -1485,18 +1485,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tomáš Souček</t>
+          <t>Gabriel Martinelli</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1514,18 +1514,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Leandro Trossard</t>
+          <t>Jacob Murphy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1543,23 +1543,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jamie Vardy</t>
+          <t>Rodrigo Muniz</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8 (1)</t>
+          <t>8 (0)</t>
         </is>
       </c>
     </row>
@@ -1572,23 +1572,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Amad Diallo</t>
+          <t>Morgan Rogers</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>7 (0)</t>
+          <t>8 (0)</t>
         </is>
       </c>
     </row>
@@ -1601,23 +1601,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jhon Durán</t>
+          <t>Dominic Solanke</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7 (0)</t>
+          <t>8 (0)</t>
         </is>
       </c>
     </row>
@@ -1630,23 +1630,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Leandro Trossard</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>7 (0)</t>
+          <t>8 (0)</t>
         </is>
       </c>
     </row>
@@ -1659,18 +1659,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gabriel Martinelli</t>
+          <t>Amad Diallo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1688,18 +1688,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dejan Kulusevski</t>
+          <t>Jhon Durán</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Noni Madueke</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1746,23 +1746,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Iliman Ndiaye</t>
+          <t>Morgan Gibbs-White</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7 (2)</t>
+          <t>7 (0)</t>
         </is>
       </c>
     </row>
@@ -1775,18 +1775,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dango Ouattara</t>
+          <t>Dejan Kulusevski</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1804,18 +1804,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ismaïla Sarr</t>
+          <t>Noni Madueke</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1833,23 +1833,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Heung-min Son</t>
+          <t>Omar Marmoush</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7 (1)</t>
+          <t>7 (0)</t>
         </is>
       </c>
     </row>
@@ -1862,23 +1862,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Diogo Jota</t>
+          <t>Mikel Merino</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>7 (0)</t>
         </is>
       </c>
     </row>
@@ -1891,23 +1891,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Anthony Elanga</t>
+          <t>Dango Ouattara</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>7 (0)</t>
         </is>
       </c>
     </row>
@@ -1920,23 +1920,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Enzo Fernández</t>
+          <t>Ismaïla Sarr</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>7 (0)</t>
         </is>
       </c>
     </row>
@@ -1949,23 +1949,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Alejandro Garnacho</t>
+          <t>Heung-min Son</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>7 (1)</t>
         </is>
       </c>
     </row>
@@ -1978,23 +1978,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anthony Gordon</t>
+          <t>Diogo Jota</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6 (1)</t>
+          <t>6 (0)</t>
         </is>
       </c>
     </row>
@@ -2007,18 +2007,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mateo Kovačić</t>
+          <t>Anthony Elanga</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2036,18 +2036,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Omar Marmoush</t>
+          <t>Enzo Fernández</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2065,18 +2065,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mikel Merino</t>
+          <t>Alejandro Garnacho</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2094,23 +2094,23 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yankuba Minteh</t>
+          <t>Anthony Gordon</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>6 (1)</t>
         </is>
       </c>
     </row>
@@ -2123,23 +2123,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Mateo Kovačić</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Aston Villa / Manchester United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6 (1)</t>
+          <t>6 (0)</t>
         </is>
       </c>
     </row>
@@ -2152,23 +2152,23 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>Yankuba Minteh</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6 (1)</t>
+          <t>6 (0)</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emile Smith Rowe</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Aston Villa / Manchester United</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>6 (1)</t>
         </is>
       </c>
     </row>
@@ -2210,23 +2210,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Jordan Ayew</t>
+          <t>Bukayo Saka</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Crystal Palace / Leicester City</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5 (1)</t>
+          <t>6 (1)</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Emile Smith Rowe</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2250,12 +2250,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5 (1)</t>
+          <t>6 (0)</t>
         </is>
       </c>
     </row>
@@ -2268,23 +2268,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Morgan Gibbs-White</t>
+          <t>Dominik Szoboszlai</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>6 (0)</t>
         </is>
       </c>
     </row>
@@ -2297,23 +2297,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Harry Wilson</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>6 (0)</t>
         </is>
       </c>
     </row>
@@ -2326,23 +2326,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Callum Hudson-Odoi</t>
+          <t>Jordan Ayew</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Crystal Palace / Leicester City</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>5 (1)</t>
         </is>
       </c>
     </row>
@@ -2355,18 +2355,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Alexis Mac Allister</t>
+          <t>Bruno Guimarães</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2384,18 +2384,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Christian Nørgaard</t>
+          <t>Facundo Buonanotte</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2413,18 +2413,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Darwin Núñez</t>
+          <t>Cucurella</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2442,18 +2442,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Georginio Rutter</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2471,18 +2471,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dominik Szoboszlai</t>
+          <t>Callum Hudson-Odoi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2500,18 +2500,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Harry Wilson</t>
+          <t>Alexis Mac Allister</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2529,23 +2529,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rayan Aït Nouri</t>
+          <t>Nikola Milenković</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>5 (0)</t>
         </is>
       </c>
     </row>
@@ -2558,23 +2558,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bruno Guimarães</t>
+          <t>Christian Nørgaard</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>5 (0)</t>
         </is>
       </c>
     </row>
@@ -2587,23 +2587,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Facundo Buonanotte</t>
+          <t>Darwin Núñez</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>5 (0)</t>
         </is>
       </c>
     </row>
@@ -2616,23 +2616,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cucurella</t>
+          <t>Georginio Rutter</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>5 (0)</t>
         </is>
       </c>
     </row>
@@ -2645,18 +2645,18 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Rayan Aït Nouri</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2674,18 +2674,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Bernardo Silva</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2703,18 +2703,18 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Joelinton</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -2732,18 +2732,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lucas Paquetá</t>
+          <t>Joelinton</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -2772,12 +2772,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4 (2)</t>
+          <t>4 (0)</t>
         </is>
       </c>
     </row>
@@ -2790,18 +2790,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Stephy Mavididi</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -2819,23 +2819,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dwight McNeil</t>
+          <t>Lucas Paquetá</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>4 (2)</t>
         </is>
       </c>
     </row>
@@ -2848,18 +2848,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Nikola Milenković</t>
+          <t>Stephy Mavididi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2877,18 +2877,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Dwight McNeil</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -2906,18 +2906,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ethan Nwaneri</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -2935,18 +2935,18 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Paul Onuachu</t>
+          <t>Ethan Nwaneri</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -2964,18 +2964,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Thomas Partey</t>
+          <t>Paul Onuachu</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -2993,18 +2993,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pedro Neto</t>
+          <t>Thomas Partey</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3022,18 +3022,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Richarlison</t>
+          <t>Pedro Neto</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3051,18 +3051,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3080,18 +3080,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ryan Sessegnon</t>
+          <t>Richarlison</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3109,18 +3109,18 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sammie Szmodics</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Ryan Sessegnon</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3149,12 +3149,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>4 (0)</t>
         </is>
       </c>
     </row>
@@ -3167,23 +3167,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Joe Aribo</t>
+          <t>Sammie Szmodics</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>4 (0)</t>
         </is>
       </c>
     </row>
@@ -3196,23 +3196,23 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carlos Baleba</t>
+          <t>Sandro Tonali</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>4 (0)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ross Barkley</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3254,18 +3254,18 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Bernardo Silva</t>
+          <t>Joe Aribo</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3283,18 +3283,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Carlos Baleba</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Trevoh Chalobah</t>
+          <t>Ross Barkley</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chelsea FC / Crystal Palace</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3341,18 +3341,18 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jérémy Doku</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3370,18 +3370,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Abdoulaye Doucouré</t>
+          <t>Trevoh Chalobah</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Chelsea FC / Crystal Palace</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3399,18 +3399,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Niclas Füllkrug</t>
+          <t>Jérémy Doku</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3428,18 +3428,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Gabriel Jesus</t>
+          <t>Abdoulaye Doucouré</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3457,18 +3457,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Gabriel Magalhães</t>
+          <t>Niclas Füllkrug</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3486,18 +3486,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Marc Guéhi</t>
+          <t>Gabriel Jesus</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3515,18 +3515,18 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>George Hirst</t>
+          <t>Gabriel Magalhães</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3544,18 +3544,18 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dean Huijsen</t>
+          <t>Marc Guéhi</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -3573,18 +3573,18 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Omari Hutchinson</t>
+          <t>Jack Hinshelwood</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -3602,18 +3602,18 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>João Gomes</t>
+          <t>George Hirst</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3631,18 +3631,18 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Curtis Jones</t>
+          <t>Dean Huijsen</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3660,18 +3660,18 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Jota Silva</t>
+          <t>Omari Hutchinson</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -3689,18 +3689,18 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Michael Keane</t>
+          <t>João Gomes</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -3718,18 +3718,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Donyell Malen</t>
+          <t>Curtis Jones</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -3747,18 +3747,18 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Marco Asensio</t>
+          <t>Jota Silva</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>James McAtee</t>
+          <t>Michael Keane</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -3805,18 +3805,18 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Christopher Nkunku</t>
+          <t>Donyell Malen</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -3834,13 +3834,13 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Amadou Onana</t>
+          <t>Marco Asensio</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3863,18 +3863,18 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pablo Sarabia</t>
+          <t>James McAtee</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Eddie Nketiah</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Arsenal FC / Crystal Palace</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -3921,13 +3921,13 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Jadon Sancho</t>
+          <t>Christopher Nkunku</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3950,18 +3950,18 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pape Sarr</t>
+          <t>Amadou Onana</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -3979,18 +3979,18 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Marcus Tavernier</t>
+          <t>Pablo Sarabia</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4008,18 +4008,18 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Youri Tielemans</t>
+          <t>Jadon Sancho</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4037,18 +4037,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sandro Tonali</t>
+          <t>Pape Sarr</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4066,18 +4066,18 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Marcus Tavernier</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4095,18 +4095,18 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Joshua Zirkzee</t>
+          <t>Youri Tielemans</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4124,23 +4124,23 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Adama Traoré</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>3 (0)</t>
         </is>
       </c>
     </row>
@@ -4153,23 +4153,23 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Simon Adingra</t>
+          <t>Joshua Zirkzee</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>3 (0)</t>
         </is>
       </c>
     </row>
@@ -4182,18 +4182,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ola Aina</t>
+          <t>Adama Traoré</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4211,18 +4211,18 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Elliot Anderson</t>
+          <t>Simon Adingra</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4240,18 +4240,18 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Andreas Pereira</t>
+          <t>Ola Aina</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4269,18 +4269,18 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cameron Archer</t>
+          <t>Elliot Anderson</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4298,18 +4298,18 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Adam Armstrong</t>
+          <t>Andreas Pereira</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4327,13 +4327,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Jan Bednarek</t>
+          <t>Cameron Archer</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4356,18 +4356,18 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Jean Bellegarde</t>
+          <t>Adam Armstrong</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4385,18 +4385,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Rodrigo Bentancur</t>
+          <t>Yasin Ayari</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4414,18 +4414,18 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yves Bissouma</t>
+          <t>Jan Bednarek</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4443,18 +4443,18 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>David Brooks</t>
+          <t>Jean Bellegarde</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -4472,18 +4472,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Riccardo Calafiori</t>
+          <t>Rodrigo Bentancur</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -4501,18 +4501,18 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ryan Christie</t>
+          <t>Yves Bissouma</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -4530,18 +4530,18 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Nathan Collins</t>
+          <t>David Brooks</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -4559,18 +4559,18 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Mikkel Damsgaard</t>
+          <t>Tom Cairney</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Fulham FC</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -4588,18 +4588,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Matthijs de Ligt</t>
+          <t>Riccardo Calafiori</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -4617,18 +4617,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tyler Dibling</t>
+          <t>Ryan Christie</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Matt Doherty</t>
+          <t>Nathan Collins</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -4675,18 +4675,18 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Bilal El Khannouss</t>
+          <t>Mikkel Damsgaard</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -4704,18 +4704,18 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Emerson</t>
+          <t>Matthijs de Ligt</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -4733,18 +4733,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Julio Enciso</t>
+          <t>Tyler Dibling</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion / Ipswich Town</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -4762,18 +4762,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Fabio Carvalho</t>
+          <t>Matt Doherty</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -4791,18 +4791,18 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Gonçalo Guedes</t>
+          <t>Bilal El Khannouss</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -4820,18 +4820,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Jack Hinshelwood</t>
+          <t>Emerson</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -4849,18 +4849,18 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hee-chan Hwang</t>
+          <t>Julio Enciso</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brighton &amp; Hove Albion / Ipswich Town</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -4878,18 +4878,18 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>James Justin</t>
+          <t>Fabio Carvalho</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -4907,18 +4907,18 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Milos Kerkez</t>
+          <t>Gonçalo Guedes</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -4936,18 +4936,18 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Tariq Lamptey</t>
+          <t>Hee-chan Hwang</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -4965,18 +4965,18 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>James Justin</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -4994,18 +4994,18 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mateus Fernandes</t>
+          <t>Milos Kerkez</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5023,18 +5023,18 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Murillo</t>
+          <t>Ezri Konsa</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5052,18 +5052,18 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Jake O'Brien</t>
+          <t>Tariq Lamptey</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5081,18 +5081,18 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Nico O'Reilly</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5110,23 +5110,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Mateus Fernandes</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>2 (0)</t>
         </is>
       </c>
     </row>
@@ -5139,18 +5139,18 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Murillo</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5168,18 +5168,18 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Jaden Philogene</t>
+          <t>Jake O'Brien</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Aston Villa / Ipswich Town</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5197,18 +5197,18 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ethan Pinnock</t>
+          <t>Nico O'Reilly</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -5226,23 +5226,23 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Rodrigo Gomes</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>2 (1)</t>
         </is>
       </c>
     </row>
@@ -5255,18 +5255,18 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Jaden Philogene</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Aston Villa / Ipswich Town</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -5313,23 +5313,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Mathys Tel</t>
+          <t>Ethan Pinnock</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>2 (0)</t>
         </is>
       </c>
     </row>
@@ -5342,18 +5342,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Enes Ünal</t>
+          <t>Rodrigo Gomes</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -5371,18 +5371,18 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Aaron Wan-Bissaka</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ryan Yates</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -5429,23 +5429,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tosin Adarabioyo</t>
+          <t>Mathys Tel</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (1)</t>
         </is>
       </c>
     </row>
@@ -5458,23 +5458,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Carlos Alcaraz</t>
+          <t>Enes Ünal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Everton FC / Southampton FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
     </row>
@@ -5487,13 +5487,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Aaron Wan-Bissaka</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
     </row>
@@ -5516,13 +5516,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Taiwo Awoniyi</t>
+          <t>Ryan Yates</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
     </row>
@@ -5545,18 +5545,18 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Yasin Ayari</t>
+          <t>Tosin Adarabioyo</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -5574,18 +5574,18 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>Emmanuel Agbadou</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -5603,18 +5603,18 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Calvin Bassey</t>
+          <t>Carlos Alcaraz</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Fulham FC</t>
+          <t>Everton FC / Southampton FC</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -5632,18 +5632,18 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nathan Broadhead</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -5661,18 +5661,18 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Dan Burn</t>
+          <t>Taiwo Awoniyi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -5690,18 +5690,18 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Moisés Caicedo</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -5719,13 +5719,13 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Tom Cairney</t>
+          <t>Calvin Bassey</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5748,13 +5748,13 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Jens Cajuste</t>
+          <t>Nathan Broadhead</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5777,18 +5777,18 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Carlos Soler</t>
+          <t>Dan Burn</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -5806,18 +5806,18 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Casemiro</t>
+          <t>Moisés Caicedo</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -5835,18 +5835,18 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Matty Cash</t>
+          <t>Jens Cajuste</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -5864,18 +5864,18 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Conor Chaplin</t>
+          <t>Carlos Soler</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -5893,18 +5893,18 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Levi Colwill</t>
+          <t>Casemiro</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -5922,18 +5922,18 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Lewis Cook</t>
+          <t>Matty Cash</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -5951,18 +5951,18 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Patson Daka</t>
+          <t>Conor Chaplin</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Leif Davis</t>
+          <t>Ben Chilwell</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -6009,13 +6009,13 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Bobby De Cordova-Reid</t>
+          <t>Conor Coady</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6038,18 +6038,18 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Justin Devenny</t>
+          <t>Levi Colwill</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6067,18 +6067,18 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Axel Disasi</t>
+          <t>Lewis Cook</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Aston Villa / Chelsea FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6096,18 +6096,18 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Flynn Downes</t>
+          <t>Patson Daka</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Romain Esse</t>
+          <t>Leif Davis</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6154,18 +6154,18 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Pervis Estupiñán</t>
+          <t>Bobby De Cordova-Reid</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6183,18 +6183,18 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Wout Faes</t>
+          <t>Justin Devenny</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -6212,18 +6212,18 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Evan Ferguson</t>
+          <t>Axel Disasi</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion / West Ham United</t>
+          <t>Aston Villa / Chelsea FC</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Tyrique George</t>
+          <t>Flynn Downes</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Jack Grealish</t>
+          <t>Harvey Elliott</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Jacob Greaves</t>
+          <t>Romain Esse</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Brajan Gruda</t>
+          <t>Pervis Estupiñán</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6357,18 +6357,18 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Jack Harrison</t>
+          <t>Wout Faes</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -6386,18 +6386,18 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Taylor Harwood-Bellis</t>
+          <t>Evan Ferguson</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Brighton &amp; Hove Albion / West Ham United</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Danny Ings</t>
+          <t>Tyrique George</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Reece James</t>
+          <t>Jack Grealish</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -6473,18 +6473,18 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Vitaly Janelt</t>
+          <t>Jacob Greaves</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -6502,18 +6502,18 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>João Félix</t>
+          <t>Brajan Gruda</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Ben Johnson</t>
+          <t>Jack Harrison</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -6560,18 +6560,18 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Ferdi Kadıoğlu</t>
+          <t>Taylor Harwood-Bellis</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6589,18 +6589,18 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Danny Ings</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -6618,18 +6618,18 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Ibrahima Konaté</t>
+          <t>Reece James</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -6647,18 +6647,18 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ezri Konsa</t>
+          <t>Vitaly Janelt</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -6676,18 +6676,18 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Maxence Lacroix</t>
+          <t>Daniel Jebbison</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -6705,18 +6705,18 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Mario Lemina</t>
+          <t>João Félix</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Ben Johnson</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -6763,18 +6763,18 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Keane Lewis-Potter</t>
+          <t>Ferdi Kadıoğlu</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Brentford FC</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -6792,18 +6792,18 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Myles Lewis-Skelly</t>
+          <t>Boubacar Kamara</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -6821,18 +6821,18 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Ian Maatsen</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -6850,18 +6850,18 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Harry Maguire</t>
+          <t>Ibrahima Konaté</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -6879,18 +6879,18 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Orel Mangala</t>
+          <t>Maxence Lacroix</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -6908,18 +6908,18 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Matheus França</t>
+          <t>Mario Lemina</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -6937,13 +6937,13 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Matheus Nunes</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -6966,18 +6966,18 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>John McGinn</t>
+          <t>Keane Lewis-Potter</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brentford FC</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Lewis Miley</t>
+          <t>Myles Lewis-Skelly</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -7024,18 +7024,18 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Sam Morsy</t>
+          <t>Ian Maatsen</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Mason Mount</t>
+          <t>Harry Maguire</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -7082,18 +7082,18 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Marshall Munetsi</t>
+          <t>Orel Mangala</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -7111,18 +7111,18 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Vitaliy Mykolenko</t>
+          <t>Matheus França</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -7140,18 +7140,18 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Reiss Nelson</t>
+          <t>Matheus Nunes</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Arsenal FC / Fulham FC</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -7169,18 +7169,18 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Eddie Nketiah</t>
+          <t>Kasey McAteer</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Arsenal FC / Crystal Palace</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -7198,18 +7198,18 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Matt O'Riley</t>
+          <t>John McGinn</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -7227,18 +7227,18 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Wilson Odobert</t>
+          <t>Lewis Miley</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -7256,18 +7256,18 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Caleb Okoli</t>
+          <t>Sam Morsy</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -7285,18 +7285,18 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>William Osula</t>
+          <t>Mason Mount</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -7314,18 +7314,18 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Jacob Ramsey</t>
+          <t>Marshall Munetsi</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -7343,18 +7343,18 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Vitaliy Mykolenko</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton FC</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -7372,18 +7372,18 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Reiss Nelson</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Arsenal FC / Fulham FC</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -7401,13 +7401,13 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Sávinho</t>
+          <t>Nico González</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -7430,18 +7430,18 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Luis Sinisterra</t>
+          <t>Matt O'Riley</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -7459,18 +7459,18 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Will Smallbone</t>
+          <t>Wilson Odobert</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -7488,18 +7488,18 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Ramón Sosa</t>
+          <t>Caleb Okoli</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -7517,18 +7517,18 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Djed Spence</t>
+          <t>William Osula</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Jack Stephens</t>
+          <t>Jacob Ramsey</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -7575,18 +7575,18 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Yukinari Sugawara</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -7604,18 +7604,18 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Kamaldeen Sulemana</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -7633,18 +7633,18 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Crysencio Summerville</t>
+          <t>Sávinho</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -7662,18 +7662,18 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Luis Sinisterra</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Everton FC</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Jack Taylor</t>
+          <t>Will Smallbone</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -7720,18 +7720,18 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Jurriën Timber</t>
+          <t>Ramón Sosa</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -7749,18 +7749,18 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Manuel Ugarte</t>
+          <t>Djed Spence</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -7778,13 +7778,13 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Lesley Ugochukwu</t>
+          <t>Jack Stephens</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -7807,18 +7807,18 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Jan Paul van Hecke</t>
+          <t>Yukinari Sugawara</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -7836,18 +7836,18 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Mats Wieffer</t>
+          <t>Kamaldeen Sulemana</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -7865,18 +7865,18 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Neco Williams</t>
+          <t>Crysencio Summerville</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Ashley Young</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
@@ -7909,6 +7909,238 @@
         </is>
       </c>
       <c r="G258" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>258</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Jack Taylor</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>259</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Jurriën Timber</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>260</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Manuel Ugarte</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>261</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Lesley Ugochukwu</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Southampton FC</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>262</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Jan Paul van Hecke</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>263</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Mats Wieffer</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>264</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Neco Williams</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>1 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>265</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Ashley Young</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Everton FC</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
         <is>
           <t>1 (0)</t>
         </is>
